--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\projects\PersonalizedPageRankForCategorization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -315,8 +320,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,10 +373,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,6 +387,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,7 +441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +473,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,6 +508,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,204 +684,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:57">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:57" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:57">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B2">
-        <v>0.251739163303182</v>
+        <v>0.25173916330318202</v>
       </c>
       <c r="C2">
-        <v>0.129572406142954</v>
+        <v>0.12957240614295401</v>
       </c>
       <c r="D2">
         <v>0.40787767072886</v>
       </c>
       <c r="E2">
-        <v>0.557876951346597</v>
+        <v>0.55787695134659698</v>
       </c>
       <c r="F2">
-        <v>0.259096497120078</v>
+        <v>0.25909649712007798</v>
       </c>
       <c r="G2">
-        <v>0.343094623283023</v>
+        <v>0.34309462328302298</v>
       </c>
       <c r="H2">
         <v>0.113172194022408</v>
@@ -872,70 +896,70 @@
         <v>0.46080019270694</v>
       </c>
       <c r="J2">
-        <v>0.660111333865519</v>
+        <v>0.66011133386551901</v>
       </c>
       <c r="K2">
-        <v>0.279561312934033</v>
+        <v>0.27956131293403302</v>
       </c>
       <c r="L2">
-        <v>0.366361564837808</v>
+        <v>0.36636156483780802</v>
       </c>
       <c r="M2">
-        <v>0.100908177743995</v>
+        <v>0.10090817774399501</v>
       </c>
       <c r="N2">
-        <v>0.500071050903304</v>
+        <v>0.50007105090330395</v>
       </c>
       <c r="O2">
-        <v>0.703788642887133</v>
+        <v>0.70378864288713305</v>
       </c>
       <c r="P2">
-        <v>0.264124464564664</v>
+        <v>0.26412446456466399</v>
       </c>
       <c r="Q2">
-        <v>0.363740626375615</v>
+        <v>0.36374062637561499</v>
       </c>
       <c r="R2">
-        <v>0.100908177743995</v>
+        <v>0.10090817774399501</v>
       </c>
       <c r="S2">
-        <v>0.500503404334851</v>
+        <v>0.50050340433485097</v>
       </c>
       <c r="T2">
-        <v>0.70920549182562</v>
+        <v>0.70920549182561998</v>
       </c>
       <c r="U2">
-        <v>0.252888221194115</v>
+        <v>0.25288822119411503</v>
       </c>
       <c r="V2">
-        <v>0.363795287476788</v>
+        <v>0.36379528747678802</v>
       </c>
       <c r="W2">
-        <v>0.100908177743995</v>
+        <v>0.10090817774399501</v>
       </c>
       <c r="X2">
-        <v>0.500011611976971</v>
+        <v>0.50001161197697097</v>
       </c>
       <c r="Y2">
-        <v>0.712200616702579</v>
+        <v>0.71220061670257895</v>
       </c>
       <c r="Z2">
-        <v>0.252256737987502</v>
+        <v>0.25225673798750198</v>
       </c>
       <c r="AA2">
-        <v>0.363795287476788</v>
+        <v>0.36379528747678802</v>
       </c>
       <c r="AB2">
-        <v>0.100908177743995</v>
+        <v>0.10090817774399501</v>
       </c>
       <c r="AC2">
-        <v>0.502643473981073</v>
+        <v>0.50264347398107301</v>
       </c>
       <c r="AD2">
-        <v>0.677886353871439</v>
+        <v>0.67788635387143903</v>
       </c>
       <c r="AE2">
-        <v>0.251714102328588</v>
+        <v>0.25171410232858799</v>
       </c>
       <c r="AF2">
         <v>0.114697178291625</v>
@@ -944,70 +968,70 @@
         <v>0.209469974234821</v>
       </c>
       <c r="AH2">
-        <v>0.141799430227585</v>
+        <v>0.14179943022758501</v>
       </c>
       <c r="AI2">
-        <v>0.238350550696332</v>
+        <v>0.23835055069633199</v>
       </c>
       <c r="AJ2">
-        <v>0.301033912089587</v>
+        <v>0.30103391208958702</v>
       </c>
       <c r="AK2">
-        <v>0.176273269640401</v>
+        <v>0.17627326964040099</v>
       </c>
       <c r="AL2">
-        <v>0.252071791661834</v>
+        <v>0.25207179166183402</v>
       </c>
       <c r="AM2">
-        <v>0.105879831561394</v>
+        <v>0.10587983156139399</v>
       </c>
       <c r="AN2">
-        <v>0.343848472474951</v>
+        <v>0.34384847247495098</v>
       </c>
       <c r="AO2">
-        <v>0.526041971739432</v>
+        <v>0.52604197173943201</v>
       </c>
       <c r="AP2">
-        <v>0.205293682854908</v>
+        <v>0.20529368285490801</v>
       </c>
       <c r="AQ2">
-        <v>0.287888928755121</v>
+        <v>0.28788892875512101</v>
       </c>
       <c r="AR2">
         <v>0.115202445028929</v>
       </c>
       <c r="AS2">
-        <v>0.408759182258181</v>
+        <v>0.40875918225818098</v>
       </c>
       <c r="AT2">
-        <v>0.418708724177082</v>
+        <v>0.41870872417708199</v>
       </c>
       <c r="AU2">
-        <v>0.191590244983555</v>
+        <v>0.19159024498355501</v>
       </c>
       <c r="AV2">
-        <v>0.306676884816067</v>
+        <v>0.30667688481606697</v>
       </c>
       <c r="AW2">
-        <v>0.114690373998389</v>
+        <v>0.11469037399838899</v>
       </c>
       <c r="AX2">
         <v>0.435960414984565</v>
       </c>
       <c r="AY2">
-        <v>0.282422969957187</v>
+        <v>0.28242296995718702</v>
       </c>
       <c r="AZ2">
-        <v>0.221270172452661</v>
+        <v>0.22127017245266101</v>
       </c>
       <c r="BA2">
         <v>0.31699526986533</v>
       </c>
       <c r="BB2">
-        <v>0.11118201769014</v>
+        <v>0.11118201769013999</v>
       </c>
       <c r="BC2">
-        <v>0.431472927373755</v>
+        <v>0.43147292737375498</v>
       </c>
       <c r="BD2">
         <v>0.196666033216918</v>
@@ -1016,323 +1040,323 @@
         <v>0.213412411754138</v>
       </c>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B3">
-        <v>0.408965250912075</v>
+        <v>0.40896525091207497</v>
       </c>
       <c r="C3">
-        <v>0.778894917360631</v>
+        <v>0.77889491736063099</v>
       </c>
       <c r="D3">
-        <v>0.542655643438904</v>
+        <v>0.54265564343890405</v>
       </c>
       <c r="E3">
-        <v>0.543759241750807</v>
+        <v>0.54375924175080703</v>
       </c>
       <c r="F3">
-        <v>0.474347462229419</v>
+        <v>0.47434746222941898</v>
       </c>
       <c r="G3">
         <v>0.73871392931808</v>
       </c>
       <c r="H3">
-        <v>0.782543408599747</v>
+        <v>0.78254340859974703</v>
       </c>
       <c r="I3">
-        <v>0.818458055354607</v>
+        <v>0.81845805535460703</v>
       </c>
       <c r="J3">
-        <v>0.859613263284348</v>
+        <v>0.85961326328434795</v>
       </c>
       <c r="K3">
-        <v>0.817634767272448</v>
+        <v>0.81763476727244799</v>
       </c>
       <c r="L3">
-        <v>0.911693191865606</v>
+        <v>0.91169319186560605</v>
       </c>
       <c r="M3">
-        <v>0.93640350877193</v>
+        <v>0.93640350877193002</v>
       </c>
       <c r="N3">
-        <v>0.923901855890237</v>
+        <v>0.92390185589023699</v>
       </c>
       <c r="O3">
-        <v>0.947626452038217</v>
+        <v>0.94762645203821705</v>
       </c>
       <c r="P3">
-        <v>0.817757936507936</v>
+        <v>0.81775793650793605</v>
       </c>
       <c r="Q3">
-        <v>0.936111111111111</v>
+        <v>0.93611111111111101</v>
       </c>
       <c r="R3">
-        <v>0.93640350877193</v>
+        <v>0.93640350877193002</v>
       </c>
       <c r="S3">
-        <v>0.950465211117385</v>
+        <v>0.95046521111738502</v>
       </c>
       <c r="T3">
-        <v>0.975093610914921</v>
+        <v>0.97509361091492097</v>
       </c>
       <c r="U3">
-        <v>0.864583333333333</v>
+        <v>0.86458333333333304</v>
       </c>
       <c r="V3">
-        <v>0.945512820512821</v>
+        <v>0.94551282051282104</v>
       </c>
       <c r="W3">
-        <v>0.93640350877193</v>
+        <v>0.93640350877193002</v>
       </c>
       <c r="X3">
-        <v>0.953759018759019</v>
+        <v>0.95375901875901903</v>
       </c>
       <c r="Y3">
-        <v>0.98449926299191</v>
+        <v>0.98449926299191004</v>
       </c>
       <c r="Z3">
         <v>0.883699633699634</v>
       </c>
       <c r="AA3">
-        <v>0.945512820512821</v>
+        <v>0.94551282051282104</v>
       </c>
       <c r="AB3">
-        <v>0.93640350877193</v>
+        <v>0.93640350877193002</v>
       </c>
       <c r="AC3">
-        <v>0.970191040843215</v>
+        <v>0.97019104084321495</v>
       </c>
       <c r="AD3">
-        <v>0.987518504355526</v>
+        <v>0.98751850435552602</v>
       </c>
       <c r="AE3">
-        <v>0.928571428571428</v>
+        <v>0.92857142857142805</v>
       </c>
       <c r="AF3">
         <v>0.104678362573099</v>
       </c>
       <c r="AG3">
-        <v>0.191953543398423</v>
+        <v>0.19195354339842299</v>
       </c>
       <c r="AH3">
         <v>0.148222683602862</v>
       </c>
       <c r="AI3">
-        <v>0.20282715123583</v>
+        <v>0.20282715123583001</v>
       </c>
       <c r="AJ3">
-        <v>0.243811086697559</v>
+        <v>0.24381108669755899</v>
       </c>
       <c r="AK3">
-        <v>0.172142578320064</v>
+        <v>0.17214257832006399</v>
       </c>
       <c r="AL3">
-        <v>0.408944057889902</v>
+        <v>0.40894405788990201</v>
       </c>
       <c r="AM3">
-        <v>0.233564159944996</v>
+        <v>0.23356415994499599</v>
       </c>
       <c r="AN3">
-        <v>0.510460893198061</v>
+        <v>0.51046089319806098</v>
       </c>
       <c r="AO3">
-        <v>0.670759013258549</v>
+        <v>0.67075901325854903</v>
       </c>
       <c r="AP3">
-        <v>0.325675683801861</v>
+        <v>0.32567568380186102</v>
       </c>
       <c r="AQ3">
-        <v>0.646977757078376</v>
+        <v>0.64697775707837601</v>
       </c>
       <c r="AR3">
-        <v>0.312077847333265</v>
+        <v>0.31207784733326499</v>
       </c>
       <c r="AS3">
-        <v>0.786727020295861</v>
+        <v>0.78672702029586095</v>
       </c>
       <c r="AT3">
-        <v>0.840980128610584</v>
+        <v>0.84098012861058402</v>
       </c>
       <c r="AU3">
         <v>0.469089706589707</v>
       </c>
       <c r="AV3">
-        <v>0.823940527065527</v>
+        <v>0.82394052706552701</v>
       </c>
       <c r="AW3">
         <v>0.394419002050581</v>
       </c>
       <c r="AX3">
-        <v>0.874383064600456</v>
+        <v>0.87438306460045601</v>
       </c>
       <c r="AY3">
-        <v>0.865740740740741</v>
+        <v>0.86574074074074103</v>
       </c>
       <c r="AZ3">
-        <v>0.651270053475936</v>
+        <v>0.65127005347593603</v>
       </c>
       <c r="BA3">
-        <v>0.894240019240019</v>
+        <v>0.89424001924001895</v>
       </c>
       <c r="BB3">
         <v>0.434780844155844</v>
       </c>
       <c r="BC3">
-        <v>0.930799220272905</v>
+        <v>0.93079922027290496</v>
       </c>
       <c r="BD3">
-        <v>0.935185185185185</v>
+        <v>0.93518518518518501</v>
       </c>
       <c r="BE3">
-        <v>0.780720899470899</v>
+        <v>0.78072089947089895</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B4">
-        <v>0.374882518295747</v>
+        <v>0.37488251829574698</v>
       </c>
       <c r="C4">
         <v>0.156262534044905</v>
       </c>
       <c r="D4">
-        <v>0.489041893398885</v>
+        <v>0.48904189339888499</v>
       </c>
       <c r="E4">
         <v>0.717911540095449</v>
       </c>
       <c r="F4">
-        <v>0.264825173116735</v>
+        <v>0.26482517311673498</v>
       </c>
       <c r="G4">
         <v>0.307775250563603</v>
       </c>
       <c r="H4">
-        <v>0.10270888789234</v>
+        <v>0.10270888789234001</v>
       </c>
       <c r="I4">
         <v>0.420454920402826</v>
       </c>
       <c r="J4">
-        <v>0.65580490140373</v>
+        <v>0.65580490140373005</v>
       </c>
       <c r="K4">
         <v>0.21898548961031</v>
       </c>
       <c r="L4">
-        <v>0.292199043811627</v>
+        <v>0.29219904381162698</v>
       </c>
       <c r="M4">
-        <v>0.0659677620760509</v>
+        <v>6.5967762076050901E-2</v>
       </c>
       <c r="N4">
         <v>0.415314227762133</v>
       </c>
       <c r="O4">
-        <v>0.651792090339577</v>
+        <v>0.65179209033957697</v>
       </c>
       <c r="P4">
-        <v>0.199526439614766</v>
+        <v>0.19952643961476599</v>
       </c>
       <c r="Q4">
-        <v>0.290526389731268</v>
+        <v>0.29052638973126799</v>
       </c>
       <c r="R4">
-        <v>0.0659677620760509</v>
+        <v>6.5967762076050901E-2</v>
       </c>
       <c r="S4">
-        <v>0.41463395565329</v>
+        <v>0.41463395565328998</v>
       </c>
       <c r="T4">
-        <v>0.651602696400183</v>
+        <v>0.65160269640018298</v>
       </c>
       <c r="U4">
         <v>0.192561625002072</v>
       </c>
       <c r="V4">
-        <v>0.290526389731268</v>
+        <v>0.29052638973126799</v>
       </c>
       <c r="W4">
-        <v>0.0659677620760509</v>
+        <v>6.5967762076050901E-2</v>
       </c>
       <c r="X4">
-        <v>0.414321845790618</v>
+        <v>0.41432184579061798</v>
       </c>
       <c r="Y4">
-        <v>0.651602696400183</v>
+        <v>0.65160269640018298</v>
       </c>
       <c r="Z4">
-        <v>0.192197723983149</v>
+        <v>0.19219772398314899</v>
       </c>
       <c r="AA4">
-        <v>0.290526389731268</v>
+        <v>0.29052638973126799</v>
       </c>
       <c r="AB4">
-        <v>0.0659677620760509</v>
+        <v>6.5967762076050901E-2</v>
       </c>
       <c r="AC4">
-        <v>0.414132451851224</v>
+        <v>0.41413245185122399</v>
       </c>
       <c r="AD4">
-        <v>0.613583670630701</v>
+        <v>0.61358367063070096</v>
       </c>
       <c r="AE4">
-        <v>0.191857587928727</v>
+        <v>0.19185758792872701</v>
       </c>
       <c r="AF4">
-        <v>0.192192802463216</v>
+        <v>0.19219280246321599</v>
       </c>
       <c r="AG4">
-        <v>0.53008546147958</v>
+        <v>0.53008546147958002</v>
       </c>
       <c r="AH4">
         <v>0.289338869635135</v>
       </c>
       <c r="AI4">
-        <v>0.624531123312234</v>
+        <v>0.62453112331223404</v>
       </c>
       <c r="AJ4">
-        <v>0.773963718636297</v>
+        <v>0.77396371863629698</v>
       </c>
       <c r="AK4">
-        <v>0.442776636844848</v>
+        <v>0.44277663684484803</v>
       </c>
       <c r="AL4">
         <v>0.357746512616125</v>
       </c>
       <c r="AM4">
-        <v>0.133693874030797</v>
+        <v>0.13369387403079699</v>
       </c>
       <c r="AN4">
-        <v>0.469813647238735</v>
+        <v>0.46981364723873498</v>
       </c>
       <c r="AO4">
-        <v>0.668222382239536</v>
+        <v>0.66822238223953601</v>
       </c>
       <c r="AP4">
-        <v>0.311911760772865</v>
+        <v>0.31191176077286498</v>
       </c>
       <c r="AQ4">
-        <v>0.321252862977087</v>
+        <v>0.32125286297708699</v>
       </c>
       <c r="AR4">
         <v>0.11597169781665</v>
       </c>
       <c r="AS4">
-        <v>0.4264600694028</v>
+        <v>0.42646006940280001</v>
       </c>
       <c r="AT4">
-        <v>0.465444205433003</v>
+        <v>0.46544420543300302</v>
       </c>
       <c r="AU4">
-        <v>0.231446462171909</v>
+        <v>0.23144646217190901</v>
       </c>
       <c r="AV4">
-        <v>0.300223459602841</v>
+        <v>0.30022345960284103</v>
       </c>
       <c r="AW4">
         <v>0.103060899694584</v>
@@ -1341,201 +1365,201 @@
         <v>0.417049874929938</v>
       </c>
       <c r="AY4">
-        <v>0.301030359323944</v>
+        <v>0.30103035932394401</v>
       </c>
       <c r="AZ4">
         <v>0.220759134903669</v>
       </c>
       <c r="BA4">
-        <v>0.293842397782429</v>
+        <v>0.29384239778242899</v>
       </c>
       <c r="BB4">
         <v>0.100477369099727</v>
       </c>
       <c r="BC4">
-        <v>0.395244461252128</v>
+        <v>0.39524446125212798</v>
       </c>
       <c r="BD4">
         <v>0.215111333077348</v>
       </c>
       <c r="BE4">
-        <v>0.202396537197928</v>
+        <v>0.20239653719792799</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="D5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="F5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="G5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="H5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="I5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K5">
-        <v>0.0015</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="M5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="N5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="O5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="P5">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="Q5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="R5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="S5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="T5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="U5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="V5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="W5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="X5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Y5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA5">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AB5">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AC5">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AD5">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AE5">
-        <v>0.0035</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="AF5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AG5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AH5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AI5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AK5">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AL5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AM5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AN5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AO5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AP5">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AQ5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AR5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AS5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AT5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AU5">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AV5">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AW5">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AX5">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY5">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AZ5">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="BA5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BB5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BC5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BD5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="BE5">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
